--- a/NewCo/BG Perf_Wk 2023021.xlsx
+++ b/NewCo/BG Perf_Wk 2023021.xlsx
@@ -818,25 +818,25 @@
         <v>6672.68569411</v>
       </c>
       <c r="U5" t="n">
-        <v>1598.81936688</v>
+        <v>1598.82212891</v>
       </c>
       <c r="V5" t="n">
         <v>1601.32538075</v>
       </c>
       <c r="W5" t="n">
-        <v>3148.71235265</v>
+        <v>3148.71513598</v>
       </c>
       <c r="X5" t="n">
         <v>3154.0185221</v>
       </c>
       <c r="Y5" t="n">
-        <v>4513.723378600001</v>
+        <v>4513.72900729</v>
       </c>
       <c r="Z5" t="n">
         <v>4526.16258971</v>
       </c>
       <c r="AA5" t="n">
-        <v>4950.00175034</v>
+        <v>4950.00737902</v>
       </c>
       <c r="AB5" t="n">
         <v>4981.00371341</v>
@@ -908,25 +908,25 @@
         <v>1506.83215259</v>
       </c>
       <c r="U6" t="n">
-        <v>302.02692766</v>
+        <v>302.03570191</v>
       </c>
       <c r="V6" t="n">
         <v>317.29671404</v>
       </c>
       <c r="W6" t="n">
-        <v>665.11860461</v>
+        <v>665.1345361</v>
       </c>
       <c r="X6" t="n">
         <v>702.80162817</v>
       </c>
       <c r="Y6" t="n">
-        <v>971.68221665</v>
+        <v>971.70777388</v>
       </c>
       <c r="Z6" t="n">
         <v>1032.96783029</v>
       </c>
       <c r="AA6" t="n">
-        <v>1120.28412266</v>
+        <v>1120.31172315</v>
       </c>
       <c r="AB6" t="n">
         <v>1191.06726708</v>

--- a/NewCo/BG Perf_Wk 2023021.xlsx
+++ b/NewCo/BG Perf_Wk 2023021.xlsx
@@ -746,10 +746,10 @@
         <v>2522.06496735</v>
       </c>
       <c r="AA4" t="n">
-        <v>2623.5623173</v>
+        <v>3090.65562166</v>
       </c>
       <c r="AB4" t="n">
-        <v>2639.8305263</v>
+        <v>3108.9514277</v>
       </c>
     </row>
     <row r="5">
@@ -818,28 +818,28 @@
         <v>6672.68569411</v>
       </c>
       <c r="U5" t="n">
-        <v>1598.82212891</v>
+        <v>1598.80235284</v>
       </c>
       <c r="V5" t="n">
         <v>1601.32538075</v>
       </c>
       <c r="W5" t="n">
-        <v>3148.71513598</v>
+        <v>3148.67381407</v>
       </c>
       <c r="X5" t="n">
         <v>3154.0185221</v>
       </c>
       <c r="Y5" t="n">
-        <v>4513.72900729</v>
+        <v>4513.66651843</v>
       </c>
       <c r="Z5" t="n">
         <v>4526.16258971</v>
       </c>
       <c r="AA5" t="n">
-        <v>4950.00737902</v>
+        <v>5581.507387359999</v>
       </c>
       <c r="AB5" t="n">
-        <v>4981.00371341</v>
+        <v>5613.49301135</v>
       </c>
     </row>
     <row r="6">
@@ -908,28 +908,28 @@
         <v>1506.83215259</v>
       </c>
       <c r="U6" t="n">
-        <v>302.03570191</v>
+        <v>302.04330808</v>
       </c>
       <c r="V6" t="n">
         <v>317.29671404</v>
       </c>
       <c r="W6" t="n">
-        <v>665.1345361</v>
+        <v>665.14843043</v>
       </c>
       <c r="X6" t="n">
         <v>702.80162817</v>
       </c>
       <c r="Y6" t="n">
-        <v>971.70777388</v>
+        <v>971.72872396</v>
       </c>
       <c r="Z6" t="n">
         <v>1032.96783029</v>
       </c>
       <c r="AA6" t="n">
-        <v>1120.31172315</v>
+        <v>1267.30326513</v>
       </c>
       <c r="AB6" t="n">
-        <v>1191.06726708</v>
+        <v>1348.6710549</v>
       </c>
     </row>
     <row r="7">
@@ -1040,49 +1040,49 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>572.7696236</v>
+        <v>573.7372012000001</v>
       </c>
       <c r="F8" t="n">
         <v>522</v>
       </c>
       <c r="G8" t="n">
-        <v>572.7696236</v>
+        <v>573.7372012000001</v>
       </c>
       <c r="H8" t="n">
         <v>522</v>
       </c>
       <c r="I8" t="n">
-        <v>572.7696236</v>
+        <v>573.7372012000001</v>
       </c>
       <c r="J8" t="n">
         <v>522</v>
       </c>
       <c r="K8" t="n">
-        <v>572.7696236</v>
+        <v>573.7372012000001</v>
       </c>
       <c r="L8" t="n">
         <v>522</v>
       </c>
       <c r="M8" t="n">
-        <v>564</v>
+        <v>515.1931301000001</v>
       </c>
       <c r="N8" t="n">
         <v>535</v>
       </c>
       <c r="O8" t="n">
-        <v>546</v>
+        <v>515.1931301000001</v>
       </c>
       <c r="P8" t="n">
         <v>535</v>
       </c>
       <c r="Q8" t="n">
-        <v>539</v>
+        <v>515.1931301000001</v>
       </c>
       <c r="R8" t="n">
         <v>535</v>
       </c>
       <c r="S8" t="n">
-        <v>538</v>
+        <v>515.1931301000001</v>
       </c>
       <c r="T8" t="n">
         <v>535</v>
